--- a/伝言板的な何か.xlsx
+++ b/伝言板的な何か.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -113,6 +113,18 @@
     <rPh sb="10" eb="11">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川辺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル選択シーンの背景などの絵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -120,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +147,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -152,19 +173,381 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -177,8 +560,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:I35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="B3:I35"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="名前" dataDxfId="7"/>
+    <tableColumn id="2" name="作業内容" dataDxfId="6"/>
+    <tableColumn id="3" name="進行度" dataDxfId="5"/>
+    <tableColumn id="4" name="指示した人" dataDxfId="4"/>
+    <tableColumn id="5" name="備考" dataDxfId="3"/>
+    <tableColumn id="6" name="作業開始日" dataDxfId="2"/>
+    <tableColumn id="7" name="終了予定日" dataDxfId="1"/>
+    <tableColumn id="8" name="終了日(終わってから書いてね)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +655,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,70 +864,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B3:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.125" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="3" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D4" s="6">
         <v>0.3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="F2" s="2">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7">
         <v>41999</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H4" s="7">
         <v>42009</v>
       </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="10"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/伝言板的な何か.xlsx
+++ b/伝言板的な何か.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,17 +222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -297,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,10 +302,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -509,6 +497,13 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -540,13 +535,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -561,7 +549,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:I35" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:I35" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B3:I35"/>
   <tableColumns count="8">
     <tableColumn id="1" name="名前" dataDxfId="7"/>
@@ -578,7 +566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,7 +608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,7 +643,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,21 +856,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -916,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
@@ -926,10 +914,12 @@
       <c r="H4" s="7">
         <v>42009</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="I4" s="7">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -942,307 +932,307 @@
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="9"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="9"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="9"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="9"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
       <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
       <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
